--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col9a2-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col9a2-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.1981143333333334</v>
+      </c>
+      <c r="H2">
+        <v>0.5943430000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.1714078479099734</v>
+      </c>
+      <c r="J2">
+        <v>0.1714078479099734</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0.8244333333333334</v>
-      </c>
-      <c r="H2">
-        <v>2.4733</v>
-      </c>
-      <c r="I2">
-        <v>0.9386266517901193</v>
-      </c>
-      <c r="J2">
-        <v>0.9386266517901193</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N2">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O2">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P2">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q2">
-        <v>0.3857982501222222</v>
+        <v>0.1620738360801111</v>
       </c>
       <c r="R2">
-        <v>3.4721842511</v>
+        <v>1.458664524721</v>
       </c>
       <c r="S2">
-        <v>0.562209411877817</v>
+        <v>0.0876811602031238</v>
       </c>
       <c r="T2">
-        <v>0.562209411877817</v>
+        <v>0.0876811602031238</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8244333333333334</v>
+        <v>0.1981143333333334</v>
       </c>
       <c r="H3">
-        <v>2.4733</v>
+        <v>0.5943430000000001</v>
       </c>
       <c r="I3">
-        <v>0.9386266517901193</v>
+        <v>0.1714078479099734</v>
       </c>
       <c r="J3">
-        <v>0.9386266517901193</v>
+        <v>0.1714078479099734</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N3">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O3">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P3">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q3">
-        <v>0.2583043069111111</v>
+        <v>0.1547642096374445</v>
       </c>
       <c r="R3">
-        <v>2.3247387622</v>
+        <v>1.392877886737</v>
       </c>
       <c r="S3">
-        <v>0.3764172399123023</v>
+        <v>0.08372668770684963</v>
       </c>
       <c r="T3">
-        <v>0.3764172399123023</v>
+        <v>0.08372668770684964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>0.05390666666666667</v>
+        <v>0.8244333333333334</v>
       </c>
       <c r="H4">
-        <v>0.16172</v>
+        <v>2.4733</v>
       </c>
       <c r="I4">
-        <v>0.06137334820988076</v>
+        <v>0.7132969181697054</v>
       </c>
       <c r="J4">
-        <v>0.06137334820988076</v>
+        <v>0.7132969181697054</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N4">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O4">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P4">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q4">
-        <v>0.02522593013777778</v>
+        <v>0.6744543450111111</v>
       </c>
       <c r="R4">
-        <v>0.22703337124</v>
+        <v>6.0700891051</v>
       </c>
       <c r="S4">
-        <v>0.03676080786353478</v>
+        <v>0.3648765334670149</v>
       </c>
       <c r="T4">
-        <v>0.03676080786353478</v>
+        <v>0.3648765334670149</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +708,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G5">
-        <v>0.05390666666666667</v>
+        <v>0.8244333333333334</v>
       </c>
       <c r="H5">
-        <v>0.16172</v>
+        <v>2.4733</v>
       </c>
       <c r="I5">
-        <v>0.06137334820988076</v>
+        <v>0.7132969181697054</v>
       </c>
       <c r="J5">
-        <v>0.06137334820988076</v>
+        <v>0.7132969181697054</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +741,152 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N5">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O5">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P5">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q5">
-        <v>0.01688956960888889</v>
+        <v>0.6440360527444444</v>
       </c>
       <c r="R5">
-        <v>0.15200612648</v>
+        <v>5.7963244747</v>
       </c>
       <c r="S5">
-        <v>0.02461254034634599</v>
+        <v>0.3484203847026905</v>
       </c>
       <c r="T5">
-        <v>0.02461254034634599</v>
+        <v>0.3484203847026905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.133259</v>
+      </c>
+      <c r="H6">
+        <v>0.399777</v>
+      </c>
+      <c r="I6">
+        <v>0.1152952339203211</v>
+      </c>
+      <c r="J6">
+        <v>0.1152952339203211</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.8180823333333334</v>
+      </c>
+      <c r="N6">
+        <v>2.454247</v>
+      </c>
+      <c r="O6">
+        <v>0.5115352725808422</v>
+      </c>
+      <c r="P6">
+        <v>0.5115352725808422</v>
+      </c>
+      <c r="Q6">
+        <v>0.1090168336576667</v>
+      </c>
+      <c r="R6">
+        <v>0.981151502919</v>
+      </c>
+      <c r="S6">
+        <v>0.05897757891070344</v>
+      </c>
+      <c r="T6">
+        <v>0.05897757891070344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.133259</v>
+      </c>
+      <c r="H7">
+        <v>0.399777</v>
+      </c>
+      <c r="I7">
+        <v>0.1152952339203211</v>
+      </c>
+      <c r="J7">
+        <v>0.1152952339203211</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7811863333333333</v>
+      </c>
+      <c r="N7">
+        <v>2.343559</v>
+      </c>
+      <c r="O7">
+        <v>0.4884647274191578</v>
+      </c>
+      <c r="P7">
+        <v>0.4884647274191579</v>
+      </c>
+      <c r="Q7">
+        <v>0.1041001095936667</v>
+      </c>
+      <c r="R7">
+        <v>0.936900986343</v>
+      </c>
+      <c r="S7">
+        <v>0.05631765500961771</v>
+      </c>
+      <c r="T7">
+        <v>0.05631765500961771</v>
       </c>
     </row>
   </sheetData>
